--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1431,6 +1431,104 @@
         <v>676</v>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>['AgACAgIAAxkBAAImHWRrf20_QGGsOJWA4v9wGGg-BfQ5AAJoyTEbYk5hSxO3xadghtxPAQADAgADcwADLwQ']</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Ghhbb</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>rrrr</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Монобукеты</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Пионы</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Ggghh</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>9</v>
+      </c>
+      <c r="H22" t="n">
+        <v>60</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>['AgACAgIAAxkBAAImV2Rrg3zefa41kkyrAAFRNNg4TCeoBwACcskxG2JOYUuv7fChdUdwTwEAAwIAA3MAAy8E']</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Bnnnmm</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>doghouse</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Монобукеты</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Розы</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Hrjrjrb</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+      <c r="I23" t="n">
+        <v>1234</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>8890.07</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
